--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_19-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_19-34.xlsx
@@ -137,6 +137,12 @@
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
+    <t>EPICEPHIN 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -164,9 +170,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>FORFLOZIN 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -347,10 +350,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-6:0</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -1527,17 +1536,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1545,7 +1554,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1553,13 +1562,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1571,7 +1580,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1579,13 +1588,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1597,7 +1606,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1605,17 +1614,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1623,7 +1632,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1631,17 +1640,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1649,7 +1658,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1657,13 +1666,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1675,7 +1684,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1683,17 +1692,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1701,7 +1710,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1709,17 +1718,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1727,7 +1736,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1735,17 +1744,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1761,17 +1770,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1787,17 +1796,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1813,17 +1822,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1831,7 +1840,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1839,13 +1848,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1865,17 +1874,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>51.299999999999997</v>
+        <v>22</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1883,7 +1892,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1891,13 +1900,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>38.5</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1917,17 +1926,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>24</v>
+        <v>38.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1943,17 +1952,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1969,17 +1978,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1987,7 +1996,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1995,13 +2004,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2021,17 +2030,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2047,13 +2056,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2073,13 +2082,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2099,17 +2108,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2125,17 +2134,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2151,17 +2160,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2169,7 +2178,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2177,17 +2186,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2203,17 +2212,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2229,17 +2238,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2247,7 +2256,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2255,13 +2264,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2281,17 +2290,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2299,7 +2308,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2307,17 +2316,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2333,17 +2342,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2359,17 +2368,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2385,17 +2394,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2403,7 +2412,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2411,13 +2420,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>45</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2437,13 +2446,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>80.75</v>
+        <v>45</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2463,17 +2472,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>47</v>
+        <v>80.75</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2489,17 +2498,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>-86.5</v>
+        <v>47</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2515,17 +2524,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>36</v>
+        <v>-86.5</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2547,7 +2556,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2567,13 +2576,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2593,17 +2602,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2611,7 +2620,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2619,17 +2628,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2645,13 +2654,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>-23</v>
+        <v>72</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2671,17 +2680,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>35</v>
+        <v>-23</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2703,7 +2712,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2729,11 +2738,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>92.120000000000005</v>
+        <v>58</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2749,13 +2758,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>99</v>
+        <v>92.120000000000005</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2781,11 +2790,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2801,13 +2810,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2827,13 +2836,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2853,17 +2862,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2879,17 +2888,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2905,17 +2914,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2923,7 +2932,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2931,13 +2940,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2949,7 +2958,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2957,17 +2966,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2975,7 +2984,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2983,17 +2992,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3001,7 +3010,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3009,17 +3018,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3027,7 +3036,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3035,17 +3044,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3053,7 +3062,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3061,17 +3070,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3079,7 +3088,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3087,51 +3096,77 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" ht="26.25" customHeight="1">
-      <c r="K87" s="10">
-        <v>4235.0600000000004</v>
-      </c>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="11">
-        <v>118</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c t="s" r="F88" s="12">
-        <v>119</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c t="s" r="I88" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
         <v>120</v>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
+        <v>77</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>20</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c t="s" r="N87" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="K88" s="10">
+        <v>4425.0600000000004</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c t="s" r="A89" s="11">
+        <v>121</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c t="s" r="F89" s="12">
+        <v>122</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c t="s" r="I89" s="14">
+        <v>123</v>
+      </c>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="263">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3388,10 +3423,13 @@
     <mergeCell ref="B86:G86"/>
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:N89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
